--- a/aprendiendo_nodejs/datos.xlsx
+++ b/aprendiendo_nodejs/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Github\Diplomado\aprendiendo_nodejs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF587589-CBCA-49B3-BDC6-39F1CC1258D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DF06D8-5336-42C4-BEFD-439C7BDFDD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D3307E6-B583-4C66-8661-08CE7015A5C6}"/>
   </bookViews>
@@ -36,75 +36,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>placa</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>fabricacion</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>chevrolet</t>
-  </si>
-  <si>
-    <t>blanco</t>
-  </si>
-  <si>
-    <t>getz</t>
-  </si>
-  <si>
-    <t>hyunday</t>
-  </si>
-  <si>
-    <t>gris</t>
-  </si>
-  <si>
-    <t>siena</t>
-  </si>
-  <si>
-    <t>fiat</t>
-  </si>
-  <si>
-    <t>rojo</t>
-  </si>
-  <si>
-    <t>fiesta</t>
-  </si>
-  <si>
-    <t>ford</t>
-  </si>
-  <si>
-    <t>azul</t>
-  </si>
-  <si>
     <t>estatus</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>ddd</t>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>GreenYellow</t>
+  </si>
+  <si>
+    <t>Chartreuse</t>
+  </si>
+  <si>
+    <t>LawnGreen</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>LimeGreen</t>
+  </si>
+  <si>
+    <t>PaleGreen</t>
+  </si>
+  <si>
+    <t>LightGreen</t>
+  </si>
+  <si>
+    <t>MediumSpringGreen</t>
+  </si>
+  <si>
+    <t>SpringGreen</t>
+  </si>
+  <si>
+    <t>MediumSeaGreen</t>
+  </si>
+  <si>
+    <t>SeaGreen</t>
+  </si>
+  <si>
+    <t>ForestGreen</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>DarkGreen</t>
+  </si>
+  <si>
+    <t>YellowGreen</t>
+  </si>
+  <si>
+    <t>OliveDrab</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>DarkOliveGreen</t>
+  </si>
+  <si>
+    <t>MediumAquamarine</t>
+  </si>
+  <si>
+    <t>DarkSeaGreen</t>
+  </si>
+  <si>
+    <t>HEX CODE</t>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+  </si>
+  <si>
+    <t>#7FFF00</t>
+  </si>
+  <si>
+    <t>#7CFC00</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#32CD32</t>
+  </si>
+  <si>
+    <t>#98FB98</t>
+  </si>
+  <si>
+    <t>#90EE90</t>
+  </si>
+  <si>
+    <t>#00FA9A</t>
+  </si>
+  <si>
+    <t>#00FF7F</t>
+  </si>
+  <si>
+    <t>#3CB371</t>
+  </si>
+  <si>
+    <t>#2E8B57</t>
+  </si>
+  <si>
+    <t>#228B22</t>
+  </si>
+  <si>
+    <t>#008000</t>
+  </si>
+  <si>
+    <t>#006400</t>
+  </si>
+  <si>
+    <t>#9ACD32</t>
+  </si>
+  <si>
+    <t>#6B8E23</t>
+  </si>
+  <si>
+    <t>#808000</t>
+  </si>
+  <si>
+    <t>#556B2F</t>
+  </si>
+  <si>
+    <t>#66CDAA</t>
+  </si>
+  <si>
+    <t>#8FBC8B</t>
+  </si>
+  <si>
+    <t>RGB CODE</t>
+  </si>
+  <si>
+    <t>rgb(173, 255, 47)</t>
+  </si>
+  <si>
+    <t>rgb(127, 255, 0)</t>
+  </si>
+  <si>
+    <t>rgb(124, 252, 0)</t>
+  </si>
+  <si>
+    <t>rgb(0, 255, 0)</t>
+  </si>
+  <si>
+    <t>rgb(50, 205, 50)</t>
+  </si>
+  <si>
+    <t>rgb(152, 251, 152)</t>
+  </si>
+  <si>
+    <t>rgb(144, 238, 144)</t>
+  </si>
+  <si>
+    <t>rgb(0, 250, 154)</t>
+  </si>
+  <si>
+    <t>rgb(0, 255, 127)</t>
+  </si>
+  <si>
+    <t>rgb(60, 179, 113)</t>
+  </si>
+  <si>
+    <t>rgb(46, 139, 87)</t>
+  </si>
+  <si>
+    <t>rgb(34, 139, 34)</t>
+  </si>
+  <si>
+    <t>rgb(0, 128, 0)</t>
+  </si>
+  <si>
+    <t>rgb(0, 100, 0)</t>
+  </si>
+  <si>
+    <t>rgb(154, 205, 50)</t>
+  </si>
+  <si>
+    <t>rgb(107, 142, 35)</t>
+  </si>
+  <si>
+    <t>rgb(128, 128, 0)</t>
+  </si>
+  <si>
+    <t>rgb(85, 107, 47)</t>
+  </si>
+  <si>
+    <t>rgb(102, 205, 170)</t>
+  </si>
+  <si>
+    <t>rgb(143, 188, 139)</t>
   </si>
 </sst>
 </file>
@@ -456,116 +585,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF56DFE-0F1B-444B-A00B-66C4B695C4A6}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A23" sqref="A23:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2008</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2009</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>2018</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>2014</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
